--- a/02table/TableS5_Salt_GWAS.xlsx
+++ b/02table/TableS5_Salt_GWAS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDA94C6-FE82-5447-BD36-D1586BABE73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085B10D2-22FB-414E-A778-9D1D39DDC5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33680" yWindow="1120" windowWidth="33000" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,9 +128,6 @@
     </r>
   </si>
   <si>
-    <t>Table S5. GWAS results for salt-reponsive traits.</t>
-  </si>
-  <si>
     <r>
       <t>a</t>
     </r>
@@ -185,6 +182,9 @@
       </rPr>
       <t>Overlapped selection signals between GWAS and selection scan. The values indicate either B2 or XP-CLR values.</t>
     </r>
+  </si>
+  <si>
+    <t>Table S5. GWAS results for salt-responsive traits.</t>
   </si>
 </sst>
 </file>
@@ -568,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L789"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="E201" sqref="E201"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -588,7 +588,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -6123,7 +6123,7 @@
     </row>
     <row r="190" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B190"/>
       <c r="C190"/>
@@ -6139,7 +6139,7 @@
     </row>
     <row r="191" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B191"/>
       <c r="C191"/>
@@ -6155,7 +6155,7 @@
     </row>
     <row r="192" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B192"/>
       <c r="C192"/>
@@ -6171,7 +6171,7 @@
     </row>
     <row r="193" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B193"/>
       <c r="C193"/>
